--- a/results/network_sim_results_graphs.xlsx
+++ b/results/network_sim_results_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="0" windowWidth="28040" windowHeight="18480" tabRatio="134" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="1840" yWindow="0" windowWidth="28040" windowHeight="18480" tabRatio="378"/>
   </bookViews>
   <sheets>
     <sheet name="chart5" sheetId="4" r:id="rId1"/>
@@ -462,11 +462,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="641983752"/>
-        <c:axId val="641986728"/>
+        <c:axId val="653115544"/>
+        <c:axId val="653118520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="641983752"/>
+        <c:axId val="653115544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641986728"/>
+        <c:crossAx val="653118520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="641986728"/>
+        <c:axId val="653118520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -514,7 +514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641983752"/>
+        <c:crossAx val="653115544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -688,11 +688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="642080008"/>
-        <c:axId val="642082984"/>
+        <c:axId val="653206344"/>
+        <c:axId val="653209320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="642080008"/>
+        <c:axId val="653206344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642082984"/>
+        <c:crossAx val="653209320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="642082984"/>
+        <c:axId val="653209320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -740,7 +740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642080008"/>
+        <c:crossAx val="653206344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642139544"/>
-        <c:axId val="642145176"/>
+        <c:axId val="661671256"/>
+        <c:axId val="661676888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="642139544"/>
+        <c:axId val="661671256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,12 +979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642145176"/>
+        <c:crossAx val="661676888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642145176"/>
+        <c:axId val="661676888"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1015,7 +1015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642139544"/>
+        <c:crossAx val="661671256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1161,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642181240"/>
-        <c:axId val="642186712"/>
+        <c:axId val="661712872"/>
+        <c:axId val="661718344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="642181240"/>
+        <c:axId val="661712872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1195,13 +1195,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642186712"/>
+        <c:crossAx val="661718344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642186712"/>
+        <c:axId val="661718344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642181240"/>
+        <c:crossAx val="661712872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1353,11 +1353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642224248"/>
-        <c:axId val="642229720"/>
+        <c:axId val="661755880"/>
+        <c:axId val="661761352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="642224248"/>
+        <c:axId val="661755880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="256.0"/>
@@ -1388,12 +1388,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642229720"/>
+        <c:crossAx val="661761352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642229720"/>
+        <c:axId val="661761352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642224248"/>
+        <c:crossAx val="661755880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1614,8 +1614,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642285528"/>
-        <c:axId val="642291512"/>
+        <c:axId val="661817864"/>
+        <c:axId val="661823848"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1754,11 +1754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642302408"/>
-        <c:axId val="642296936"/>
+        <c:axId val="661834744"/>
+        <c:axId val="661829272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="642285528"/>
+        <c:axId val="661817864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1793,14 +1793,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642291512"/>
+        <c:crossAx val="661823848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642291512"/>
+        <c:axId val="661823848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,12 +1830,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642285528"/>
+        <c:crossAx val="661817864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642296936"/>
+        <c:axId val="661829272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1865,13 +1865,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642302408"/>
+        <c:crossAx val="661834744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642302408"/>
+        <c:axId val="661834744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642296936"/>
+        <c:crossAx val="661829272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1926,7 +1926,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="154" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1981,7 +1981,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="154" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2019,12 +2019,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35588</cdr:x>
-      <cdr:y>0.04945</cdr:y>
+      <cdr:x>0.42607</cdr:x>
+      <cdr:y>0.05086</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.41171</cdr:x>
-      <cdr:y>0.09708</cdr:y>
+      <cdr:x>0.4819</cdr:x>
+      <cdr:y>0.09849</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2033,8 +2033,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3052617" y="288500"/>
-          <a:ext cx="478877" cy="277846"/>
+          <a:off x="3654263" y="296563"/>
+          <a:ext cx="478832" cy="277705"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>

--- a/results/network_sim_results_graphs.xlsx
+++ b/results/network_sim_results_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="0" windowWidth="28040" windowHeight="18480" tabRatio="378"/>
+    <workbookView xWindow="-340" yWindow="-21400" windowWidth="28040" windowHeight="18480" tabRatio="378" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="chart5" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Results of Network Simulations</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Nx</t>
-  </si>
-  <si>
-    <t>(projected)</t>
   </si>
   <si>
     <t>Framerate at Different Resolutions</t>
@@ -462,11 +459,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="653115544"/>
-        <c:axId val="653118520"/>
+        <c:axId val="746117368"/>
+        <c:axId val="746120344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="653115544"/>
+        <c:axId val="746117368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653118520"/>
+        <c:crossAx val="746120344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="653118520"/>
+        <c:axId val="746120344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -514,7 +511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653115544"/>
+        <c:crossAx val="746117368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -688,11 +685,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="653206344"/>
-        <c:axId val="653209320"/>
+        <c:axId val="746208168"/>
+        <c:axId val="746211144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="653206344"/>
+        <c:axId val="746208168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653209320"/>
+        <c:crossAx val="746211144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="653209320"/>
+        <c:axId val="746211144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -740,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653206344"/>
+        <c:crossAx val="746208168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,11 +938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="661671256"/>
-        <c:axId val="661676888"/>
+        <c:axId val="746268216"/>
+        <c:axId val="746273848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="661671256"/>
+        <c:axId val="746268216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,12 +976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661676888"/>
+        <c:crossAx val="746273848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661676888"/>
+        <c:axId val="746273848"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1015,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661671256"/>
+        <c:crossAx val="746268216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1161,11 +1158,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="661712872"/>
-        <c:axId val="661718344"/>
+        <c:axId val="746309832"/>
+        <c:axId val="746315304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="661712872"/>
+        <c:axId val="746309832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1195,13 +1192,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661718344"/>
+        <c:crossAx val="746315304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661718344"/>
+        <c:axId val="746315304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661712872"/>
+        <c:crossAx val="746309832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1353,11 +1350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="661755880"/>
-        <c:axId val="661761352"/>
+        <c:axId val="746352840"/>
+        <c:axId val="746358312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="661755880"/>
+        <c:axId val="746352840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="256.0"/>
@@ -1388,12 +1385,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661761352"/>
+        <c:crossAx val="746358312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661761352"/>
+        <c:axId val="746358312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661755880"/>
+        <c:crossAx val="746352840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1614,8 +1611,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="661817864"/>
-        <c:axId val="661823848"/>
+        <c:axId val="746414824"/>
+        <c:axId val="746420808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1754,11 +1751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="661834744"/>
-        <c:axId val="661829272"/>
+        <c:axId val="746431704"/>
+        <c:axId val="746426232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="661817864"/>
+        <c:axId val="746414824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1793,14 +1790,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661823848"/>
+        <c:crossAx val="746420808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661823848"/>
+        <c:axId val="746420808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,12 +1827,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661817864"/>
+        <c:crossAx val="746414824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661829272"/>
+        <c:axId val="746426232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1865,13 +1862,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661834744"/>
+        <c:crossAx val="746431704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661834744"/>
+        <c:axId val="746431704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661829272"/>
+        <c:crossAx val="746426232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1926,7 +1923,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="154" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1970,7 +1967,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="154" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2966,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3054,7 +3051,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>0.58765069999999997</v>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
         <v>8.5649999999999995</v>
@@ -3100,7 +3097,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4">
         <v>0.66255699999999995</v>
@@ -3123,7 +3120,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4">
         <v>0.24337259999999999</v>
@@ -3146,7 +3143,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4">
         <v>0.10057849000000001</v>
@@ -3389,13 +3386,10 @@
         <f>C42/B42</f>
         <v>1487.3549655850543</v>
       </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3411,10 +3405,10 @@
         <v>14</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" s="5"/>
     </row>
@@ -3510,7 +3504,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3526,22 +3520,22 @@
         <v>13</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="F60" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3686,12 +3680,12 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="G69" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -3704,34 +3698,34 @@
         <v>19</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
         <v>34</v>
-      </c>
-      <c r="C70" t="s">
-        <v>35</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
         <v>34</v>
-      </c>
-      <c r="I70" t="s">
-        <v>35</v>
       </c>
       <c r="J70" t="s">
         <v>5</v>
       </c>
       <c r="K70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" t="s">
         <v>26</v>
-      </c>
-      <c r="L70" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:12">
